--- a/earlywarning-pom/earlywarning-config/src/baf-instances/62_Inst_Variable_ISBA.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/62_Inst_Variable_ISBA.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="465" windowWidth="28500" windowHeight="16575" tabRatio="991"/>
+    <workbookView xWindow="3495" yWindow="465" windowWidth="28500" windowHeight="16575" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'r Variable_DataType'!$A$2:$F$126</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variable!$A$2:$M$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variable!$A$2:$M$127</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="547">
   <si>
     <t>Variable</t>
   </si>
@@ -1679,18 +1679,40 @@
   </si>
   <si>
     <t>209 - Unpaid instalments for loans</t>
+  </si>
+  <si>
+    <t>EXPOSURE</t>
+  </si>
+  <si>
+    <t>Exposure</t>
+  </si>
+  <si>
+    <t>IsCustomField</t>
+  </si>
+  <si>
+    <t>ISBA_EXPOSURE</t>
+  </si>
+  <si>
+    <t>ISBA_EXPOSURE_REAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1802,7 +1824,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1810,61 +1832,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1966,12 +2012,18 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>941085</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>250825</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2024,12 +2076,18 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>941085</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>250825</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2082,12 +2140,18 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>941085</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>250825</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2140,12 +2204,18 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>941085</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>250825</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2198,12 +2268,18 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>941085</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>250825</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2261,7 +2337,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2309,7 +2391,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1"/>
+        <xdr:cNvPr id="13" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2367,7 +2455,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CustomShape 1"/>
+        <xdr:cNvPr id="14" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2425,7 +2519,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1"/>
+        <xdr:cNvPr id="15" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2483,7 +2583,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CustomShape 1"/>
+        <xdr:cNvPr id="16" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2541,7 +2647,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1"/>
+        <xdr:cNvPr id="17" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2599,7 +2711,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3074" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="3074" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2893,10 +3011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M126"/>
+  <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C126"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2916,7 +3034,7 @@
     <col min="13" max="13" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2932,8 +3050,9 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N1" s="22"/>
+    </row>
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2973,8 +3092,11 @@
       <c r="M2" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="22" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -3014,8 +3136,11 @@
       <c r="M3" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -3055,8 +3180,11 @@
       <c r="M4" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -3096,110 +3224,119 @@
       <c r="M5" s="14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>545</v>
+      </c>
+      <c r="C6" t="s">
+        <v>542</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="E6" t="s">
+        <v>542</v>
+      </c>
+      <c r="F6" t="s">
+        <v>543</v>
+      </c>
+      <c r="G6" s="20">
+        <v>500</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C7" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D7" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G7" s="16">
         <v>4</v>
       </c>
-      <c r="H6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8" t="s">
+      <c r="H7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="L7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C8" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G8" s="10">
         <v>5</v>
-      </c>
-      <c r="H7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G8" s="16">
-        <v>6</v>
       </c>
       <c r="H8" s="4" t="b">
         <v>0</v>
@@ -3211,77 +3348,83 @@
         <v>45</v>
       </c>
       <c r="K8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="16">
+        <v>6</v>
+      </c>
+      <c r="H9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="L8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="L9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C10" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G10" s="10">
         <v>7</v>
-      </c>
-      <c r="H9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="L9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G10" s="10">
-        <v>8</v>
       </c>
       <c r="H10" s="4" t="b">
         <v>0</v>
@@ -3301,28 +3444,31 @@
       <c r="M10" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N10" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G11" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11" s="4" t="b">
         <v>0</v>
@@ -3342,28 +3488,31 @@
       <c r="M11" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N11" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G12" s="16">
-        <v>10</v>
+        <v>174</v>
+      </c>
+      <c r="G12" s="10">
+        <v>9</v>
       </c>
       <c r="H12" s="4" t="b">
         <v>0</v>
@@ -3383,28 +3532,31 @@
       <c r="M12" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N12" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G13" s="10">
-        <v>11</v>
+        <v>175</v>
+      </c>
+      <c r="G13" s="16">
+        <v>10</v>
       </c>
       <c r="H13" s="4" t="b">
         <v>0</v>
@@ -3424,69 +3576,75 @@
       <c r="M13" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N13" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" s="10">
+        <v>11</v>
+      </c>
+      <c r="H14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="L14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C15" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D15" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G15" s="16">
         <v>12</v>
-      </c>
-      <c r="H14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="L14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G15" s="10">
-        <v>13</v>
       </c>
       <c r="H15" s="4" t="b">
         <v>0</v>
@@ -3506,28 +3664,31 @@
       <c r="M15" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N15" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G16" s="10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" s="4" t="b">
         <v>0</v>
@@ -3547,28 +3708,31 @@
       <c r="M16" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G17" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" s="4" t="b">
         <v>0</v>
@@ -3588,28 +3752,31 @@
       <c r="M17" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N17" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G18" s="16">
-        <v>16</v>
+        <v>180</v>
+      </c>
+      <c r="G18" s="10">
+        <v>15</v>
       </c>
       <c r="H18" s="4" t="b">
         <v>0</v>
@@ -3629,28 +3796,31 @@
       <c r="M18" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G19" s="10">
-        <v>17</v>
+        <v>181</v>
+      </c>
+      <c r="G19" s="16">
+        <v>16</v>
       </c>
       <c r="H19" s="4" t="b">
         <v>0</v>
@@ -3670,69 +3840,75 @@
       <c r="M19" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N19" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" s="10">
+        <v>17</v>
+      </c>
+      <c r="H20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="L20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C21" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G21" s="16">
         <v>18</v>
-      </c>
-      <c r="H20" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="L20" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G21" s="10">
-        <v>19</v>
       </c>
       <c r="H21" s="4" t="b">
         <v>0</v>
@@ -3752,28 +3928,31 @@
       <c r="M21" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G22" s="10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H22" s="4" t="b">
         <v>0</v>
@@ -3793,28 +3972,31 @@
       <c r="M22" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N22" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G23" s="10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23" s="4" t="b">
         <v>0</v>
@@ -3834,69 +4016,75 @@
       <c r="M23" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" s="10">
+        <v>21</v>
+      </c>
+      <c r="H24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="L24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C25" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D25" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G25" s="16">
         <v>22</v>
-      </c>
-      <c r="H24" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="L24" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G25" s="10">
-        <v>23</v>
       </c>
       <c r="H25" s="4" t="b">
         <v>0</v>
@@ -3916,69 +4104,75 @@
       <c r="M25" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N25" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" s="10">
+        <v>23</v>
+      </c>
+      <c r="H26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="L26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C27" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D27" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G27" s="16">
         <v>24</v>
-      </c>
-      <c r="H26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="L26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="G27" s="10">
-        <v>25</v>
       </c>
       <c r="H27" s="4" t="b">
         <v>0</v>
@@ -3998,28 +4192,31 @@
       <c r="M27" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N27" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G28" s="10">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H28" s="4" t="b">
         <v>0</v>
@@ -4039,28 +4236,31 @@
       <c r="M28" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N28" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G29" s="10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H29" s="4" t="b">
         <v>0</v>
@@ -4080,28 +4280,31 @@
       <c r="M29" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="N29" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G30" s="16">
-        <v>28</v>
+        <v>192</v>
+      </c>
+      <c r="G30" s="10">
+        <v>27</v>
       </c>
       <c r="H30" s="4" t="b">
         <v>0</v>
@@ -4121,28 +4324,31 @@
       <c r="M30" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="N30" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G31" s="10">
-        <v>29</v>
+        <v>193</v>
+      </c>
+      <c r="G31" s="16">
+        <v>28</v>
       </c>
       <c r="H31" s="4" t="b">
         <v>0</v>
@@ -4162,28 +4368,31 @@
       <c r="M31" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="N31" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G32" s="16">
-        <v>30</v>
+        <v>194</v>
+      </c>
+      <c r="G32" s="10">
+        <v>29</v>
       </c>
       <c r="H32" s="4" t="b">
         <v>0</v>
@@ -4203,28 +4412,31 @@
       <c r="M32" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="N32" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G33" s="10">
-        <v>31</v>
+        <v>195</v>
+      </c>
+      <c r="G33" s="16">
+        <v>30</v>
       </c>
       <c r="H33" s="4" t="b">
         <v>0</v>
@@ -4244,28 +4456,31 @@
       <c r="M33" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="N33" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G34" s="10">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H34" s="4" t="b">
         <v>0</v>
@@ -4285,28 +4500,31 @@
       <c r="M34" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="N34" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G35" s="10">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H35" s="4" t="b">
         <v>0</v>
@@ -4326,28 +4544,31 @@
       <c r="M35" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G36" s="16">
-        <v>34</v>
+        <v>198</v>
+      </c>
+      <c r="G36" s="10">
+        <v>33</v>
       </c>
       <c r="H36" s="4" t="b">
         <v>0</v>
@@ -4367,28 +4588,31 @@
       <c r="M36" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G37" s="10">
-        <v>35</v>
+        <v>199</v>
+      </c>
+      <c r="G37" s="16">
+        <v>34</v>
       </c>
       <c r="H37" s="4" t="b">
         <v>0</v>
@@ -4408,28 +4632,31 @@
       <c r="M37" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N37" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G38" s="16">
-        <v>36</v>
+        <v>200</v>
+      </c>
+      <c r="G38" s="10">
+        <v>35</v>
       </c>
       <c r="H38" s="4" t="b">
         <v>0</v>
@@ -4449,28 +4676,31 @@
       <c r="M38" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="G39" s="10">
-        <v>37</v>
+        <v>201</v>
+      </c>
+      <c r="G39" s="16">
+        <v>36</v>
       </c>
       <c r="H39" s="4" t="b">
         <v>0</v>
@@ -4490,28 +4720,31 @@
       <c r="M39" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N39" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G40" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H40" s="4" t="b">
         <v>0</v>
@@ -4531,28 +4764,31 @@
       <c r="M40" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N40" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G41" s="10">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H41" s="4" t="b">
         <v>0</v>
@@ -4572,28 +4808,31 @@
       <c r="M41" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N41" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G42" s="16">
-        <v>40</v>
+        <v>204</v>
+      </c>
+      <c r="G42" s="10">
+        <v>39</v>
       </c>
       <c r="H42" s="4" t="b">
         <v>0</v>
@@ -4613,28 +4852,31 @@
       <c r="M42" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N42" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G43" s="10">
-        <v>41</v>
+        <v>205</v>
+      </c>
+      <c r="G43" s="16">
+        <v>40</v>
       </c>
       <c r="H43" s="4" t="b">
         <v>0</v>
@@ -4654,28 +4896,31 @@
       <c r="M43" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N43" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G44" s="16">
-        <v>42</v>
+        <v>206</v>
+      </c>
+      <c r="G44" s="10">
+        <v>41</v>
       </c>
       <c r="H44" s="4" t="b">
         <v>0</v>
@@ -4695,28 +4940,31 @@
       <c r="M44" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N44" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G45" s="10">
-        <v>43</v>
+        <v>207</v>
+      </c>
+      <c r="G45" s="16">
+        <v>42</v>
       </c>
       <c r="H45" s="4" t="b">
         <v>0</v>
@@ -4736,28 +4984,31 @@
       <c r="M45" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G46" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H46" s="4" t="b">
         <v>0</v>
@@ -4777,28 +5028,31 @@
       <c r="M46" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G47" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H47" s="4" t="b">
         <v>0</v>
@@ -4818,28 +5072,31 @@
       <c r="M47" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N47" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="G48" s="16">
-        <v>46</v>
+        <v>210</v>
+      </c>
+      <c r="G48" s="10">
+        <v>45</v>
       </c>
       <c r="H48" s="4" t="b">
         <v>0</v>
@@ -4859,28 +5116,31 @@
       <c r="M48" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N48" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G49" s="10">
-        <v>47</v>
+        <v>211</v>
+      </c>
+      <c r="G49" s="16">
+        <v>46</v>
       </c>
       <c r="H49" s="4" t="b">
         <v>0</v>
@@ -4900,28 +5160,31 @@
       <c r="M49" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G50" s="16">
-        <v>48</v>
+        <v>212</v>
+      </c>
+      <c r="G50" s="10">
+        <v>47</v>
       </c>
       <c r="H50" s="4" t="b">
         <v>0</v>
@@ -4941,28 +5204,31 @@
       <c r="M50" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N50" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="G51" s="10">
-        <v>49</v>
+        <v>213</v>
+      </c>
+      <c r="G51" s="16">
+        <v>48</v>
       </c>
       <c r="H51" s="4" t="b">
         <v>0</v>
@@ -4982,28 +5248,31 @@
       <c r="M51" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N51" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G52" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H52" s="4" t="b">
         <v>0</v>
@@ -5023,28 +5292,31 @@
       <c r="M52" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G53" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H53" s="4" t="b">
         <v>0</v>
@@ -5064,28 +5336,31 @@
       <c r="M53" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N53" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G54" s="16">
-        <v>52</v>
+        <v>216</v>
+      </c>
+      <c r="G54" s="10">
+        <v>51</v>
       </c>
       <c r="H54" s="4" t="b">
         <v>0</v>
@@ -5105,28 +5380,31 @@
       <c r="M54" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N54" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="G55" s="10">
-        <v>53</v>
+        <v>217</v>
+      </c>
+      <c r="G55" s="16">
+        <v>52</v>
       </c>
       <c r="H55" s="4" t="b">
         <v>0</v>
@@ -5146,28 +5424,31 @@
       <c r="M55" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N55" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="G56" s="16">
-        <v>54</v>
+        <v>218</v>
+      </c>
+      <c r="G56" s="10">
+        <v>53</v>
       </c>
       <c r="H56" s="4" t="b">
         <v>0</v>
@@ -5187,28 +5468,31 @@
       <c r="M56" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N56" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="G57" s="10">
-        <v>55</v>
+        <v>219</v>
+      </c>
+      <c r="G57" s="16">
+        <v>54</v>
       </c>
       <c r="H57" s="4" t="b">
         <v>0</v>
@@ -5228,28 +5512,31 @@
       <c r="M57" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N57" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G58" s="10">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H58" s="4" t="b">
         <v>0</v>
@@ -5269,28 +5556,31 @@
       <c r="M58" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G59" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H59" s="4" t="b">
         <v>0</v>
@@ -5310,28 +5600,31 @@
       <c r="M59" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G60" s="16">
-        <v>58</v>
+        <v>222</v>
+      </c>
+      <c r="G60" s="10">
+        <v>57</v>
       </c>
       <c r="H60" s="4" t="b">
         <v>0</v>
@@ -5351,28 +5644,31 @@
       <c r="M60" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="G61" s="10">
-        <v>59</v>
+        <v>223</v>
+      </c>
+      <c r="G61" s="16">
+        <v>58</v>
       </c>
       <c r="H61" s="4" t="b">
         <v>0</v>
@@ -5392,28 +5688,31 @@
       <c r="M61" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N61" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="G62" s="16">
-        <v>60</v>
+        <v>224</v>
+      </c>
+      <c r="G62" s="10">
+        <v>59</v>
       </c>
       <c r="H62" s="4" t="b">
         <v>0</v>
@@ -5433,28 +5732,31 @@
       <c r="M62" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N62" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="G63" s="10">
-        <v>61</v>
+        <v>225</v>
+      </c>
+      <c r="G63" s="16">
+        <v>60</v>
       </c>
       <c r="H63" s="4" t="b">
         <v>0</v>
@@ -5474,28 +5776,31 @@
       <c r="M63" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G64" s="10">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H64" s="4" t="b">
         <v>0</v>
@@ -5515,28 +5820,31 @@
       <c r="M64" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G65" s="10">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H65" s="4" t="b">
         <v>0</v>
@@ -5556,28 +5864,31 @@
       <c r="M65" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N65" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="G66" s="16">
-        <v>64</v>
+        <v>228</v>
+      </c>
+      <c r="G66" s="10">
+        <v>63</v>
       </c>
       <c r="H66" s="4" t="b">
         <v>0</v>
@@ -5597,28 +5908,31 @@
       <c r="M66" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G67" s="10">
-        <v>65</v>
+        <v>229</v>
+      </c>
+      <c r="G67" s="16">
+        <v>64</v>
       </c>
       <c r="H67" s="4" t="b">
         <v>0</v>
@@ -5638,28 +5952,31 @@
       <c r="M67" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N67" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G68" s="16">
-        <v>66</v>
+        <v>230</v>
+      </c>
+      <c r="G68" s="10">
+        <v>65</v>
       </c>
       <c r="H68" s="4" t="b">
         <v>0</v>
@@ -5679,28 +5996,31 @@
       <c r="M68" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="G69" s="10">
-        <v>67</v>
+        <v>231</v>
+      </c>
+      <c r="G69" s="16">
+        <v>66</v>
       </c>
       <c r="H69" s="4" t="b">
         <v>0</v>
@@ -5720,28 +6040,31 @@
       <c r="M69" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G70" s="10">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H70" s="4" t="b">
         <v>0</v>
@@ -5761,28 +6084,31 @@
       <c r="M70" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N70" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G71" s="10">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H71" s="4" t="b">
         <v>0</v>
@@ -5802,28 +6128,31 @@
       <c r="M71" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="G72" s="16">
-        <v>70</v>
+        <v>234</v>
+      </c>
+      <c r="G72" s="10">
+        <v>69</v>
       </c>
       <c r="H72" s="4" t="b">
         <v>0</v>
@@ -5843,28 +6172,31 @@
       <c r="M72" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G73" s="10">
-        <v>71</v>
+        <v>235</v>
+      </c>
+      <c r="G73" s="16">
+        <v>70</v>
       </c>
       <c r="H73" s="4" t="b">
         <v>0</v>
@@ -5884,28 +6216,31 @@
       <c r="M73" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N73" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G74" s="16">
-        <v>72</v>
+        <v>236</v>
+      </c>
+      <c r="G74" s="10">
+        <v>71</v>
       </c>
       <c r="H74" s="4" t="b">
         <v>0</v>
@@ -5925,28 +6260,31 @@
       <c r="M74" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N74" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G75" s="10">
-        <v>73</v>
+        <v>237</v>
+      </c>
+      <c r="G75" s="16">
+        <v>72</v>
       </c>
       <c r="H75" s="4" t="b">
         <v>0</v>
@@ -5966,28 +6304,31 @@
       <c r="M75" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N75" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G76" s="10">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H76" s="4" t="b">
         <v>0</v>
@@ -6007,28 +6348,31 @@
       <c r="M76" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G77" s="10">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H77" s="4" t="b">
         <v>0</v>
@@ -6048,28 +6392,31 @@
       <c r="M77" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N77" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G78" s="16">
-        <v>76</v>
+        <v>240</v>
+      </c>
+      <c r="G78" s="10">
+        <v>75</v>
       </c>
       <c r="H78" s="4" t="b">
         <v>0</v>
@@ -6089,28 +6436,31 @@
       <c r="M78" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N78" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G79" s="10">
-        <v>77</v>
+        <v>241</v>
+      </c>
+      <c r="G79" s="16">
+        <v>76</v>
       </c>
       <c r="H79" s="4" t="b">
         <v>0</v>
@@ -6130,28 +6480,31 @@
       <c r="M79" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N79" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="G80" s="16">
-        <v>78</v>
+        <v>242</v>
+      </c>
+      <c r="G80" s="10">
+        <v>77</v>
       </c>
       <c r="H80" s="4" t="b">
         <v>0</v>
@@ -6171,28 +6524,31 @@
       <c r="M80" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N80" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G81" s="10">
-        <v>79</v>
+        <v>243</v>
+      </c>
+      <c r="G81" s="16">
+        <v>78</v>
       </c>
       <c r="H81" s="4" t="b">
         <v>0</v>
@@ -6212,28 +6568,31 @@
       <c r="M81" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G82" s="10">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H82" s="4" t="b">
         <v>0</v>
@@ -6253,28 +6612,31 @@
       <c r="M82" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N82" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G83" s="10">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H83" s="4" t="b">
         <v>0</v>
@@ -6294,28 +6656,31 @@
       <c r="M83" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="G84" s="16">
-        <v>82</v>
+        <v>246</v>
+      </c>
+      <c r="G84" s="10">
+        <v>81</v>
       </c>
       <c r="H84" s="4" t="b">
         <v>0</v>
@@ -6335,28 +6700,31 @@
       <c r="M84" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N84" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="G85" s="10">
-        <v>83</v>
+        <v>247</v>
+      </c>
+      <c r="G85" s="16">
+        <v>82</v>
       </c>
       <c r="H85" s="4" t="b">
         <v>0</v>
@@ -6376,28 +6744,31 @@
       <c r="M85" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="G86" s="16">
-        <v>84</v>
+        <v>248</v>
+      </c>
+      <c r="G86" s="10">
+        <v>83</v>
       </c>
       <c r="H86" s="4" t="b">
         <v>0</v>
@@ -6417,28 +6788,31 @@
       <c r="M86" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="G87" s="10">
-        <v>85</v>
+        <v>249</v>
+      </c>
+      <c r="G87" s="16">
+        <v>84</v>
       </c>
       <c r="H87" s="4" t="b">
         <v>0</v>
@@ -6458,28 +6832,31 @@
       <c r="M87" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N87" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G88" s="10">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H88" s="4" t="b">
         <v>0</v>
@@ -6499,28 +6876,31 @@
       <c r="M88" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G89" s="10">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H89" s="4" t="b">
         <v>0</v>
@@ -6540,28 +6920,31 @@
       <c r="M89" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="G90" s="16">
-        <v>88</v>
+        <v>252</v>
+      </c>
+      <c r="G90" s="10">
+        <v>87</v>
       </c>
       <c r="H90" s="4" t="b">
         <v>0</v>
@@ -6581,28 +6964,31 @@
       <c r="M90" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N90" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G91" s="10">
-        <v>89</v>
+        <v>253</v>
+      </c>
+      <c r="G91" s="16">
+        <v>88</v>
       </c>
       <c r="H91" s="4" t="b">
         <v>0</v>
@@ -6622,28 +7008,31 @@
       <c r="M91" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N91" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G92" s="16">
-        <v>90</v>
+        <v>254</v>
+      </c>
+      <c r="G92" s="10">
+        <v>89</v>
       </c>
       <c r="H92" s="4" t="b">
         <v>0</v>
@@ -6663,28 +7052,31 @@
       <c r="M92" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G93" s="10">
-        <v>91</v>
+        <v>255</v>
+      </c>
+      <c r="G93" s="16">
+        <v>90</v>
       </c>
       <c r="H93" s="4" t="b">
         <v>0</v>
@@ -6704,69 +7096,75 @@
       <c r="M93" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N93" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G94" s="10">
+        <v>91</v>
+      </c>
+      <c r="H94" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="L94" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N94" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="C94" s="17" t="s">
+      <c r="C95" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="D94" s="15" t="s">
+      <c r="D95" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E95" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="F95" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G94" s="10">
+      <c r="G95" s="10">
         <v>92</v>
-      </c>
-      <c r="H94" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K94" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="L94" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M94" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>493</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="G95" s="10">
-        <v>93</v>
       </c>
       <c r="H95" s="4" t="b">
         <v>0</v>
@@ -6786,28 +7184,31 @@
       <c r="M95" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N95" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="G96" s="16">
-        <v>94</v>
+        <v>258</v>
+      </c>
+      <c r="G96" s="10">
+        <v>93</v>
       </c>
       <c r="H96" s="4" t="b">
         <v>0</v>
@@ -6827,28 +7228,31 @@
       <c r="M96" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N96" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="G97" s="10">
-        <v>95</v>
+        <v>259</v>
+      </c>
+      <c r="G97" s="16">
+        <v>94</v>
       </c>
       <c r="H97" s="4" t="b">
         <v>0</v>
@@ -6868,68 +7272,74 @@
       <c r="M97" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G98" s="10">
+        <v>95</v>
+      </c>
+      <c r="H98" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="L98" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N98" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="C98" s="17" t="s">
+      <c r="C99" s="17" t="s">
         <v>523</v>
       </c>
-      <c r="D98" s="15" t="s">
+      <c r="D99" s="15" t="s">
         <v>526</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E99" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F99" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="G98" s="16"/>
-      <c r="H98" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K98" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="L98" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M98" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="D99" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="G99" s="10">
-        <v>121</v>
-      </c>
+      <c r="G99" s="16"/>
       <c r="H99" s="4" t="b">
         <v>0</v>
       </c>
@@ -6948,28 +7358,31 @@
       <c r="M99" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N99" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="G100" s="16">
-        <v>122</v>
+        <v>261</v>
+      </c>
+      <c r="G100" s="10">
+        <v>121</v>
       </c>
       <c r="H100" s="4" t="b">
         <v>0</v>
@@ -6989,28 +7402,31 @@
       <c r="M100" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N100" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="G101" s="10">
-        <v>123</v>
+        <v>262</v>
+      </c>
+      <c r="G101" s="16">
+        <v>122</v>
       </c>
       <c r="H101" s="4" t="b">
         <v>0</v>
@@ -7030,28 +7446,31 @@
       <c r="M101" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N101" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="G102" s="16">
-        <v>124</v>
+        <v>263</v>
+      </c>
+      <c r="G102" s="10">
+        <v>123</v>
       </c>
       <c r="H102" s="4" t="b">
         <v>0</v>
@@ -7071,27 +7490,32 @@
       <c r="M102" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="N102" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>529</v>
+        <v>380</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>528</v>
+        <v>150</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="G103" s="16"/>
+        <v>264</v>
+      </c>
+      <c r="G103" s="16">
+        <v>124</v>
+      </c>
       <c r="H103" s="4" t="b">
         <v>0</v>
       </c>
@@ -7110,29 +7534,30 @@
       <c r="M103" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N103" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>381</v>
+        <v>529</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>151</v>
+        <v>528</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="G104" s="10">
-        <v>125</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="G104" s="16"/>
       <c r="H104" s="4" t="b">
         <v>0</v>
       </c>
@@ -7151,28 +7576,31 @@
       <c r="M104" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N104" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="G105" s="16">
-        <v>126</v>
+        <v>265</v>
+      </c>
+      <c r="G105" s="10">
+        <v>125</v>
       </c>
       <c r="H105" s="4" t="b">
         <v>0</v>
@@ -7192,28 +7620,31 @@
       <c r="M105" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N105" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="G106" s="10">
-        <v>129</v>
+        <v>266</v>
+      </c>
+      <c r="G106" s="16">
+        <v>126</v>
       </c>
       <c r="H106" s="4" t="b">
         <v>0</v>
@@ -7233,28 +7664,31 @@
       <c r="M106" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N106" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="G107" s="16">
-        <v>130</v>
+        <v>267</v>
+      </c>
+      <c r="G107" s="10">
+        <v>129</v>
       </c>
       <c r="H107" s="4" t="b">
         <v>0</v>
@@ -7274,28 +7708,31 @@
       <c r="M107" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N107" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="G108" s="10">
-        <v>133</v>
+        <v>268</v>
+      </c>
+      <c r="G108" s="16">
+        <v>130</v>
       </c>
       <c r="H108" s="4" t="b">
         <v>0</v>
@@ -7315,28 +7752,31 @@
       <c r="M108" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N108" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G109" s="16">
-        <v>134</v>
+        <v>269</v>
+      </c>
+      <c r="G109" s="10">
+        <v>133</v>
       </c>
       <c r="H109" s="4" t="b">
         <v>0</v>
@@ -7356,27 +7796,32 @@
       <c r="M109" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N109" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>533</v>
+        <v>386</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>532</v>
+        <v>156</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="G110" s="16"/>
+        <v>270</v>
+      </c>
+      <c r="G110" s="16">
+        <v>134</v>
+      </c>
       <c r="H110" s="4" t="b">
         <v>0</v>
       </c>
@@ -7395,29 +7840,30 @@
       <c r="M110" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N110" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>387</v>
+        <v>533</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>157</v>
+        <v>532</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G111" s="10">
-        <v>135</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="G111" s="16"/>
       <c r="H111" s="4" t="b">
         <v>0</v>
       </c>
@@ -7436,27 +7882,32 @@
       <c r="M111" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N111" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="D112" s="15" t="s">
         <v>387</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>538</v>
+        <v>157</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="G112" s="10"/>
+        <v>271</v>
+      </c>
+      <c r="G112" s="10">
+        <v>135</v>
+      </c>
       <c r="H112" s="4" t="b">
         <v>0</v>
       </c>
@@ -7475,25 +7926,28 @@
       <c r="M112" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N112" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>539</v>
+        <v>387</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G113" s="10"/>
       <c r="H113" s="4" t="b">
@@ -7514,29 +7968,30 @@
       <c r="M113" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N113" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>388</v>
+        <v>539</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>158</v>
+        <v>537</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G114" s="10">
-        <v>139</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="G114" s="10"/>
       <c r="H114" s="4" t="b">
         <v>0</v>
       </c>
@@ -7555,28 +8010,31 @@
       <c r="M114" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N114" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="G115" s="16">
-        <v>140</v>
+        <v>272</v>
+      </c>
+      <c r="G115" s="10">
+        <v>139</v>
       </c>
       <c r="H115" s="4" t="b">
         <v>0</v>
@@ -7596,28 +8054,31 @@
       <c r="M115" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="N115" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G116" s="16">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H116" s="4" t="b">
         <v>0</v>
@@ -7637,28 +8098,31 @@
       <c r="M116" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="N116" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G117" s="10">
-        <v>143</v>
+        <v>274</v>
+      </c>
+      <c r="G117" s="16">
+        <v>142</v>
       </c>
       <c r="H117" s="4" t="b">
         <v>0</v>
@@ -7678,28 +8142,31 @@
       <c r="M117" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="N117" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G118" s="16">
-        <v>144</v>
+        <v>275</v>
+      </c>
+      <c r="G118" s="10">
+        <v>143</v>
       </c>
       <c r="H118" s="4" t="b">
         <v>0</v>
@@ -7719,28 +8186,31 @@
       <c r="M118" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="N118" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="G119" s="10">
-        <v>145</v>
+        <v>276</v>
+      </c>
+      <c r="G119" s="16">
+        <v>144</v>
       </c>
       <c r="H119" s="4" t="b">
         <v>0</v>
@@ -7760,28 +8230,31 @@
       <c r="M119" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N119" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="G120" s="16">
-        <v>146</v>
+        <v>277</v>
+      </c>
+      <c r="G120" s="10">
+        <v>145</v>
       </c>
       <c r="H120" s="4" t="b">
         <v>0</v>
@@ -7801,69 +8274,75 @@
       <c r="M120" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N120" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B121" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="D121" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G121" s="16">
+        <v>146</v>
+      </c>
+      <c r="H121" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="L121" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M121" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N121" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="C121" s="17" t="s">
+      <c r="C122" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="D121" s="15" t="s">
+      <c r="D122" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="E121" s="4" t="s">
+      <c r="E122" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="F122" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="G121" s="16">
+      <c r="G122" s="16">
         <v>148</v>
-      </c>
-      <c r="H121" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I121" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K121" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="L121" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M121" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A122" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="D122" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="G122" s="10">
-        <v>149</v>
       </c>
       <c r="H122" s="4" t="b">
         <v>0</v>
@@ -7883,28 +8362,31 @@
       <c r="M122" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N122" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G123" s="16">
-        <v>150</v>
+        <v>280</v>
+      </c>
+      <c r="G123" s="10">
+        <v>149</v>
       </c>
       <c r="H123" s="4" t="b">
         <v>0</v>
@@ -7924,28 +8406,31 @@
       <c r="M123" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N123" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="G124" s="10">
-        <v>151</v>
+        <v>281</v>
+      </c>
+      <c r="G124" s="16">
+        <v>150</v>
       </c>
       <c r="H124" s="4" t="b">
         <v>0</v>
@@ -7965,28 +8450,31 @@
       <c r="M124" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="N124" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="G125" s="16">
-        <v>152</v>
+        <v>282</v>
+      </c>
+      <c r="G125" s="10">
+        <v>151</v>
       </c>
       <c r="H125" s="4" t="b">
         <v>0</v>
@@ -8006,28 +8494,31 @@
       <c r="M125" s="4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="N125" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G126" s="10">
-        <v>153</v>
+        <v>283</v>
+      </c>
+      <c r="G126" s="16">
+        <v>152</v>
       </c>
       <c r="H126" s="4" t="b">
         <v>0</v>
@@ -8047,9 +8538,56 @@
       <c r="M126" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="N126" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="D127" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G127" s="10">
+        <v>153</v>
+      </c>
+      <c r="H127" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I127" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="L127" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M127" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N127" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:M126"/>
+  <autoFilter ref="A2:M127"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8058,11 +8596,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10211,6 +10749,23 @@
       </c>
       <c r="F126" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" t="s">
+        <v>546</v>
+      </c>
+      <c r="C127" t="s">
+        <v>546</v>
+      </c>
+      <c r="E127" t="s">
+        <v>545</v>
+      </c>
+      <c r="F127" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
